--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452239.721515885</v>
+        <v>1446518.109547999</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10983774.061582</v>
+        <v>10983774.06158199</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.533095967716</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>124.3870697343666</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9.452075920964607</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>156.5457052205737</v>
       </c>
       <c r="U5" t="n">
-        <v>155.945238196831</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>80.88877949312959</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>97.42715891998027</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>258.6803151092594</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.90975838011561</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903385</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>42.14148120795347</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.89665561178229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>71.67037196991659</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>86.35257921647541</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>18.26879610203937</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>187.6382658783192</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>90.41948680756546</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>129.5765970421783</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>45.41799742323421</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492352</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>63.72703424640811</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>197.8576937463063</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U40" t="n">
-        <v>223.9745215501171</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>134.0393882137436</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>194.7000303319012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>78.53455727340442</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>61.83721437613784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1348.549746658564</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>990.2840480518139</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>604.4957954535696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>193.509890663962</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>179.586486602553</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258235</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.4036268380754</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>211.4036268380754</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>211.4036268380754</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>63.49053325568224</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>63.49053325568224</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>63.49053325568224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>63.49053325568224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>63.49053325568224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380754</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380754</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380754</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2362.844628362116</v>
       </c>
       <c r="U5" t="n">
-        <v>2089.787804211887</v>
+        <v>2109.082843000208</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.787804211887</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
         <v>99.59950625323012</v>
@@ -4761,16 +4761,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.014999249838</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>381.8627885497561</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>234.9728410518458</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>65.9730407901782</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>65.9730407901782</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>65.9730407901782</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>336.276983312403</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810047</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5047,13 +5047,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5293,37 +5293,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5381,16 +5381,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1722.090429196224</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1722.090429196224</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1467.405940990337</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>1177.988770953376</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>949.9992200553586</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>729.2066409118285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,13 +5503,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5521,13 +5521,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.9395339702917</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C19" t="n">
-        <v>343.0033510423848</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145538</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>583.5523174165364</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>511.9395339702917</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5831,28 +5831,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4168978689405</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1883.949150983575</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1629.264662777688</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1339.847492740728</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.85794184271</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.0653626991802</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>304.0396960664506</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>637.859069756297</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004706</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6080,16 +6080,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423041</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
         <v>242.4509819463048</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423041</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,13 +6214,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6235,16 +6235,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6308,7 +6308,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6320,25 +6320,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.822894557956</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C28" t="n">
-        <v>192.8867116300491</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D28" t="n">
-        <v>192.8867116300491</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E28" t="n">
-        <v>192.8867116300491</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1825.458014546947</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1536.355147672591</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1281.670659466704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>992.2534894297432</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>764.2639385317259</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>543.4713593881958</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3348.500285847604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089896</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1883.949150983575</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.264662777688</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="W31" t="n">
         <v>1339.847492740728</v>
@@ -6715,13 +6715,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,34 +6779,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.7687655736</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699243</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493357</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456396</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.574689558379</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>2992.782110414849</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6952,37 +6952,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.4904761572601</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>772.5542932293532</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>622.4376538170175</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>474.5245602346243</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>327.634612736714</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>159.9317761114329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="X37" t="n">
-        <v>1123.1389409875</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="Y37" t="n">
-        <v>1123.1389409875</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074197</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.259539097266</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789529</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3531.125154183959</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>3362.188971256052</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>3212.072331843716</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3064.159238261323</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>4048.531875118937</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>4048.531875118937</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>3759.114705081976</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3531.125154183959</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3531.125154183959</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,46 +7417,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>876.4469737784534</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C43" t="n">
-        <v>707.5107908505465</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D43" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.554715057174</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W43" t="n">
-        <v>1475.554715057174</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X43" t="n">
-        <v>1278.888017752223</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.095438608693</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="44">
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.3941514382108</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C46" t="n">
-        <v>557.3941514382108</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D46" t="n">
-        <v>557.3941514382108</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>557.3941514382108</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>557.3941514382108</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>19.79750571619275</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>133.253057640026</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>226.768859619311</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400276</v>
+        <v>226.7688596193101</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>177.4074680682157</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.6879977403125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>214.5414662356963</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>132.2320741356194</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.9780249965885</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>30.94638747377562</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>75.60632145146276</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>89.97235223399085</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>206.7196459005938</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270138</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>81.02798066791267</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>88.66530459028468</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U40" t="n">
-        <v>62.23731665549573</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>45.79259196819365</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>31.00962505713593</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>88.71226382522342</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>163.8724410128993</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074731</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="F2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="G2" t="n">
         <v>476498.14426438</v>
       </c>
-      <c r="G2" t="n">
-        <v>476498.1442643797</v>
-      </c>
       <c r="H2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.14426438</v>
       </c>
       <c r="I2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="K2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="L2" t="n">
         <v>476498.1442643798</v>
       </c>
       <c r="M2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="N2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="P2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643798</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924298</v>
@@ -26429,34 +26429,34 @@
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.6079970919</v>
-      </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26487,13 +26487,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372408.4917518136</v>
+        <v>-372408.4917518139</v>
       </c>
       <c r="C6" t="n">
         <v>217559.3874627306</v>
       </c>
       <c r="D6" t="n">
-        <v>217559.3874627307</v>
+        <v>217559.3874627305</v>
       </c>
       <c r="E6" t="n">
-        <v>-368882.3959798323</v>
+        <v>-369554.3508820905</v>
       </c>
       <c r="F6" t="n">
-        <v>358495.0180135744</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="G6" t="n">
-        <v>358495.0180135742</v>
+        <v>357823.0631113165</v>
       </c>
       <c r="H6" t="n">
-        <v>358495.0180135745</v>
+        <v>357823.0631113165</v>
       </c>
       <c r="I6" t="n">
-        <v>358495.0180135744</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="J6" t="n">
-        <v>182071.7988209814</v>
+        <v>181399.8439187233</v>
       </c>
       <c r="K6" t="n">
-        <v>358495.0180135741</v>
+        <v>357823.0631113162</v>
       </c>
       <c r="L6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="M6" t="n">
-        <v>228852.7031746295</v>
+        <v>228180.7482723715</v>
       </c>
       <c r="N6" t="n">
-        <v>358495.0180135746</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="O6" t="n">
-        <v>358495.0180135739</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="P6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260.2007456957646</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>199.5357030299905</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>35.74788326757239</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>226.8591419211456</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>59.9026151370841</v>
       </c>
       <c r="U5" t="n">
-        <v>95.27892931145828</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>171.2488638306984</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>121.1574944321145</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>111.0507855692096</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>33.2902008084214</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35661,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>210.5845066849053</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>384.0473624437454</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>734.8218605075301</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230589</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248953</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282465</v>
+        <v>734.8218605075292</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446518.109547999</v>
+        <v>1449923.600672448</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>147.5273527511106</v>
       </c>
       <c r="H2" t="n">
-        <v>124.3870697343666</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="W4" t="n">
-        <v>59.66385641544537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>131.8833957201517</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>156.5457052205737</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.42715891998027</v>
+        <v>47.14167849255917</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>34.64843515299425</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.90975838011561</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>73.53680714572691</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.56305512390918</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>42.14148120795347</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>113.5103646250815</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.13931750950046</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.35257921647541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>90.15542043263873</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>187.6382658783192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>81.85784919477537</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>90.41948680756546</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>145.8111705386694</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>45.41799742323421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>30.9739433000053</v>
       </c>
       <c r="W37" t="n">
-        <v>197.8576937463063</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>28.20584125154421</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.0393882137436</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>78.53455727340442</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>35.19569619650117</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.549746658564</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D2" t="n">
-        <v>990.2840480518139</v>
+        <v>1480.395363208549</v>
       </c>
       <c r="E2" t="n">
-        <v>604.4957954535696</v>
+        <v>1094.607110610304</v>
       </c>
       <c r="F2" t="n">
-        <v>193.509890663962</v>
+        <v>683.6212058206968</v>
       </c>
       <c r="G2" t="n">
-        <v>179.586486602553</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>667.8624625746712</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>667.8624625746712</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>340.6245090577513</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2362.844628362116</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2109.082843000208</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1778.019955656637</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1778.019955656637</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1778.019955656637</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934728</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>600.3007934237124</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>846.9187564332271</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>488.6530578264766</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>102.8648052282324</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>381.8627885497561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>234.9728410518458</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>65.9730407901782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>65.9730407901782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>65.9730407901782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5047,16 +5047,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5120,22 +5120,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1401.275111879671</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5293,37 +5293,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.2066409118285</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C16" t="n">
-        <v>560.2704579839216</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
         <v>410.1538185715858</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1722.090429196224</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1722.090429196224</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1467.405940990337</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W16" t="n">
-        <v>1177.988770953376</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X16" t="n">
-        <v>949.9992200553586</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y16" t="n">
-        <v>729.2066409118285</v>
+        <v>935.2642346193824</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,13 +5503,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5524,13 +5524,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.866433243363</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5761,19 +5761,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5831,28 +5831,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.4103109586945</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C22" t="n">
-        <v>243.4741280307875</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>342.591706703376</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>342.591706703376</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>195.7017592054656</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W22" t="n">
-        <v>909.2731541783409</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X22" t="n">
-        <v>681.2836032803235</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.0587757889342</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,16 +5974,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,46 +5995,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>242.4509819463048</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="C25" t="n">
-        <v>242.4509819463048</v>
+        <v>504.4465917311009</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>354.3299523187651</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>354.3299523187651</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>354.3299523187651</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>186.6271156934841</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814702</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608815</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>841.6225995718539</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X25" t="n">
-        <v>613.6330486738366</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y25" t="n">
-        <v>424.0994467765445</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6232,40 +6232,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858347</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="C28" t="n">
-        <v>481.6968904858347</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="D28" t="n">
-        <v>481.6968904858347</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="E28" t="n">
-        <v>333.7837969034416</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>186.8938494055313</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6420,16 +6420,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858347</v>
+        <v>736.3813786917215</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>1002.918095296203</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>833.9819123682965</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>683.8652729559608</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>535.9521793735677</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>389.0622318756573</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814702</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1339.847492740728</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740728</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>1184.566560126443</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>1184.566560126443</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,58 +6755,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075804</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7131,16 +7131,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="W37" t="n">
-        <v>709.4168978689405</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="X37" t="n">
-        <v>709.4168978689405</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y37" t="n">
-        <v>709.4168978689405</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3348.500285847604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,64 +7229,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>414.613856788637</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>245.6776738607301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582084</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>770.7997573601911</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.0071782166609</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.7083461157126</v>
+        <v>300.0484256555955</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3805104860112</v>
+        <v>131.1122427276885</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>131.1122427276885</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>131.1122427276885</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>131.1122427276885</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7809,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>481.6968904858352</v>
       </c>
     </row>
   </sheetData>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277304</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,13 +9889,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.253057640026</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>198.7154374299943</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,22 +10831,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>226.7688596193101</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-1.426747608945789e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>178.6008361781011</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.2689250580281</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>177.4074680682157</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>52.51544363394669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>66.88649074952777</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.2320741356194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>54.59959448168205</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.94638747377562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>64.5761134517938</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>75.60632145146276</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>20.21463772035881</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>206.7196459005938</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>221.1637000238227</v>
       </c>
       <c r="W37" t="n">
-        <v>88.66530459028468</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>118.228121395025</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.79259196819365</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>88.71226382522342</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.8301120625271</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934114.8039074731</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="14">
@@ -26319,7 +26319,7 @@
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
         <v>476498.1442643799</v>
@@ -26328,34 +26328,34 @@
         <v>476498.1442643799</v>
       </c>
       <c r="G2" t="n">
-        <v>476498.14426438</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
-        <v>476498.14426438</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="I2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="J2" t="n">
         <v>476498.1442643799</v>
-      </c>
-      <c r="J2" t="n">
-        <v>476498.1442643797</v>
       </c>
       <c r="K2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="L2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="M2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="N2" t="n">
         <v>476498.1442643798</v>
       </c>
-      <c r="M2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="N2" t="n">
-        <v>476498.1442643797</v>
-      </c>
       <c r="O2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="P2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="C4" t="n">
         <v>192206.5963924297</v>
-      </c>
-      <c r="C4" t="n">
-        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
@@ -26459,7 +26459,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>217559.3874627306</v>
       </c>
       <c r="D6" t="n">
-        <v>217559.3874627305</v>
+        <v>217559.3874627306</v>
       </c>
       <c r="E6" t="n">
-        <v>-369554.3508820905</v>
+        <v>-368949.5914700581</v>
       </c>
       <c r="F6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233483</v>
       </c>
       <c r="G6" t="n">
-        <v>357823.0631113165</v>
+        <v>358427.8225233487</v>
       </c>
       <c r="H6" t="n">
-        <v>357823.0631113165</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="I6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="J6" t="n">
-        <v>181399.8439187233</v>
+        <v>182004.6033307555</v>
       </c>
       <c r="K6" t="n">
-        <v>357823.0631113162</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="L6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233484</v>
       </c>
       <c r="M6" t="n">
-        <v>228180.7482723715</v>
+        <v>228785.5076844037</v>
       </c>
       <c r="N6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233484</v>
       </c>
       <c r="O6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233484</v>
       </c>
       <c r="P6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233483</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>266.2568172696844</v>
       </c>
       <c r="H2" t="n">
-        <v>199.5357030299905</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030477</v>
       </c>
       <c r="W4" t="n">
-        <v>226.8591419211456</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>281.9007743006433</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>59.9026151370841</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>121.1574944321145</v>
+        <v>171.4429748595356</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>372.2276105887172</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>33.2902008084214</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200623</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,13 +36609,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471015</v>
       </c>
       <c r="Q26" t="n">
-        <v>384.0473624437454</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36837,22 +36837,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>654.3055518223265</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37071,25 +37071,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
@@ -37551,22 +37551,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>734.8218605075292</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400148</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O44" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
